--- a/input_tool/edu_table_helper_FR.xlsx
+++ b/input_tool/edu_table_helper_FR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann SAY\Desktop\git\EduAnalysisTool\input_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{639412D4-FF1B-4394-A4DA-764DFCD3A979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925EDAB-D4B4-4A0B-B132-98849D5464BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>tab</t>
   </si>
@@ -65,30 +65,9 @@
     <t>access</t>
   </si>
   <si>
-    <t>Overall</t>
-  </si>
-  <si>
     <t>out_of_school</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>School has been closed due to conflict</t>
-  </si>
-  <si>
-    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
-  </si>
-  <si>
-    <t>Lack of appropriate and accessible school</t>
-  </si>
-  <si>
-    <t>Cannot afford education-related costs (e.g. tuition, supplies, transportation)</t>
-  </si>
-  <si>
-    <t>Child participating in income generating activities outside of the home</t>
-  </si>
-  <si>
     <t>% d'enfants en âge scolaire ayant fréquenté l'école ou un programme d'éducation pré-primaire en 2023-2024</t>
   </si>
   <si>
@@ -138,6 +117,24 @@
   </si>
   <si>
     <t>% d'enfants avec 2 ans de plus que l'âge prévu : primaire</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>child_marriage</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>handicap_child</t>
+  </si>
+  <si>
+    <t>lack_interest</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -520,17 +517,17 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -561,40 +558,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -604,20 +601,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="28.86328125" customWidth="1"/>
+    <col min="1" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="7" width="28.86328125" customWidth="1"/>
+    <col min="4" max="7" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,58 +637,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="G7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -704,17 +696,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,40 +729,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -782,18 +774,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,40 +808,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/input_tool/edu_table_helper_FR.xlsx
+++ b/input_tool/edu_table_helper_FR.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann SAY\Desktop\git\EduAnalysisTool\input_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925EDAB-D4B4-4A0B-B132-98849D5464BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{E925EDAB-D4B4-4A0B-B132-98849D5464BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF355B3F-B3F1-4A3D-B9E0-46F65F0FE9D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
     <sheet name="out_of_school" sheetId="3" r:id="rId2"/>
     <sheet name="ece" sheetId="4" r:id="rId3"/>
     <sheet name="level1" sheetId="5" r:id="rId4"/>
+    <sheet name="level2" sheetId="6" r:id="rId5"/>
+    <sheet name="level3" sheetId="7" r:id="rId6"/>
+    <sheet name="level4" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>tab</t>
   </si>
@@ -104,12 +107,6 @@
     <t>Barrières</t>
   </si>
   <si>
-    <t>% d'enfants (un an avant l'âge d'entrée à l'école primaire) en programme pré-primaire ou primaire</t>
-  </si>
-  <si>
-    <t>% d'enfants (un an avant l'âge d'entrée à l'école primaire) en primaire</t>
-  </si>
-  <si>
     <t>Profil de fréquentation scolaire</t>
   </si>
   <si>
@@ -122,7 +119,13 @@
     <t>Ensemble</t>
   </si>
   <si>
-    <t>child_marriage</t>
+    <t>% d'enfants un an avant l'âge d'entrée à l'école primaire fréquentant un programme d'éducation préscolaire ou l'école primaire</t>
+  </si>
+  <si>
+    <t>% d'enfants un an avant l'âge d'entrée à l'école primaire fréquentant l'école primaire</t>
+  </si>
+  <si>
+    <t>child-marriage</t>
   </si>
   <si>
     <t>costs</t>
@@ -135,6 +138,39 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge de niveau intermédiaire actuellement scolarisés au niveau intermédiaire ou plus</t>
+  </si>
+  <si>
+    <t>% d'enfants avec 2 ans de plus que l'âge prévu : secondaire</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge de secondaire actuellement scolarisés au secondaire ou plus</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge de secondaire supérieur actuellement scolarisés au secondaire supérieur ou plus</t>
+  </si>
+  <si>
+    <t>Profil de fréquentation scolaire:  secondaire supérieur</t>
+  </si>
+  <si>
+    <t>Profil de fréquentation scolaire: secondaire</t>
+  </si>
+  <si>
+    <t>Profil de fréquentation scolaire: niveau intermédiaire -- secondaire</t>
+  </si>
+  <si>
+    <t>Profil de fréquentation scolaire: primaire</t>
+  </si>
+  <si>
+    <t>éducation pré-primaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analyse des enfants accédant à l'éducation</t>
+  </si>
+  <si>
+    <t>Analyse des enfants n'ayant pas accès à l'éducation, OoS</t>
   </si>
 </sst>
 </file>
@@ -517,17 +553,17 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.31640625" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,15 +586,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -573,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -581,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -589,7 +625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="G5" t="s">
         <v>13</v>
       </c>
@@ -604,17 +640,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="28.88671875" customWidth="1"/>
+    <col min="1" max="2" width="28.86328125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="7" width="28.88671875" customWidth="1"/>
+    <col min="4" max="7" width="28.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,15 +673,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -660,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -668,7 +704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -676,18 +712,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="G5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="G6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -696,17 +733,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,15 +766,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -746,21 +783,21 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -775,17 +812,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,15 +845,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -825,21 +862,252 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB6243-7252-47E5-AC13-C1BFCCE2E7EE}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3E788-8021-4125-8D0E-F28A9B53C11D}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA05FE4-DC30-4D72-BCB6-840C7E1C2CD0}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
         <v>16</v>
       </c>

--- a/input_tool/edu_table_helper_FR.xlsx
+++ b/input_tool/edu_table_helper_FR.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann SAY\Desktop\git\EduAnalysisTool\input_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{E925EDAB-D4B4-4A0B-B132-98849D5464BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF355B3F-B3F1-4A3D-B9E0-46F65F0FE9D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE1669-350D-4A48-9691-8F4FC8C1B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
-    <sheet name="out_of_school" sheetId="3" r:id="rId2"/>
-    <sheet name="ece" sheetId="4" r:id="rId3"/>
-    <sheet name="level1" sheetId="5" r:id="rId4"/>
-    <sheet name="level2" sheetId="6" r:id="rId5"/>
-    <sheet name="level3" sheetId="7" r:id="rId6"/>
-    <sheet name="level4" sheetId="8" r:id="rId7"/>
+    <sheet name="overaged" sheetId="9" r:id="rId2"/>
+    <sheet name="out_of_school" sheetId="3" r:id="rId3"/>
+    <sheet name="ece" sheetId="4" r:id="rId4"/>
+    <sheet name="level1" sheetId="5" r:id="rId5"/>
+    <sheet name="level2" sheetId="6" r:id="rId6"/>
+    <sheet name="level3" sheetId="7" r:id="rId7"/>
+    <sheet name="level4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>tab</t>
   </si>
@@ -89,12 +90,6 @@
     <t>Interruption</t>
   </si>
   <si>
-    <t>Féminin / femme</t>
-  </si>
-  <si>
-    <t>Masculin / homme</t>
-  </si>
-  <si>
     <t>Accès</t>
   </si>
   <si>
@@ -125,21 +120,6 @@
     <t>% d'enfants un an avant l'âge d'entrée à l'école primaire fréquentant l'école primaire</t>
   </si>
   <si>
-    <t>child-marriage</t>
-  </si>
-  <si>
-    <t>costs</t>
-  </si>
-  <si>
-    <t>handicap_child</t>
-  </si>
-  <si>
-    <t>lack_interest</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>% d'enfants en âge de niveau intermédiaire actuellement scolarisés au niveau intermédiaire ou plus</t>
   </si>
   <si>
@@ -171,13 +151,43 @@
   </si>
   <si>
     <t>Analyse des enfants n'ayant pas accès à l'éducation, OoS</t>
+  </si>
+  <si>
+    <t>overaged</t>
+  </si>
+  <si>
+    <t>Filles</t>
+  </si>
+  <si>
+    <t>Garcons</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Impossibilité de payer les coûts directs de l'éducation</t>
+  </si>
+  <si>
+    <t>Manque d'intérêt / L'éducation n'est pas une priorité pour l'enfant ou le ménage</t>
+  </si>
+  <si>
+    <t>Mariage, fiançailles et/ou grossesse</t>
+  </si>
+  <si>
+    <t>Le handicap ou les problèmes de santé de l'enfant l'empêchent d'aller à l'école</t>
+  </si>
+  <si>
+    <t>Analyse des élèves en retard scolaire</t>
+  </si>
+  <si>
+    <t>Retard scolaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +202,24 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFEFC1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,9 +234,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,17 +580,17 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,18 +613,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -609,23 +636,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>13</v>
       </c>
@@ -636,21 +663,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08680CC-21CB-4C65-AC6D-F24FF5598654}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="7" width="28.86328125" customWidth="1"/>
+    <col min="1" max="7" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,53 +780,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="G6" t="s">
-        <v>31</v>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -728,22 +835,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A8981-F8A2-408A-9A14-DF2744D820F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,119 +874,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -887,21 +916,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB6243-7252-47E5-AC13-C1BFCCE2E7EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,40 +954,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -966,21 +996,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3E788-8021-4125-8D0E-F28A9B53C11D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB6243-7252-47E5-AC13-C1BFCCE2E7EE}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,37 +1034,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1042,21 +1076,99 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3E788-8021-4125-8D0E-F28A9B53C11D}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA05FE4-DC30-4D72-BCB6-840C7E1C2CD0}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,37 +1191,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
